--- a/Table/xlsx/GameData.xlsx
+++ b/Table/xlsx/GameData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD2A9B-4289-46F9-8D1A-663593864F28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC6EDF-AC4B-4B84-AC8A-4DC4B27DC99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1065" windowWidth="12645" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartItemSetting" sheetId="4" r:id="rId1"/>
@@ -258,7 +258,7 @@
             <v>MaxUse</v>
           </cell>
           <cell r="G1" t="str">
-            <v>Stackable</v>
+            <v>ItemType</v>
           </cell>
           <cell r="H1" t="str">
             <v>Dropable</v>
@@ -273,7 +273,7 @@
             <v>IsKillerItem</v>
           </cell>
           <cell r="L1" t="str">
-            <v>Findable</v>
+            <v>ItemTargetType</v>
           </cell>
         </row>
         <row r="2">
@@ -287,7 +287,7 @@
             <v>int</v>
           </cell>
           <cell r="D2" t="str">
-            <v>int</v>
+            <v>List&lt;int&gt;</v>
           </cell>
           <cell r="E2" t="str">
             <v>int</v>
@@ -296,7 +296,7 @@
             <v>int</v>
           </cell>
           <cell r="G2" t="str">
-            <v>bool</v>
+            <v>EItemType</v>
           </cell>
           <cell r="H2" t="str">
             <v>bool</v>
@@ -311,7 +311,7 @@
             <v>bool</v>
           </cell>
           <cell r="L2" t="str">
-            <v>bool</v>
+            <v>EItemTargetType</v>
           </cell>
         </row>
         <row r="3">
@@ -324,8 +324,8 @@
           <cell r="C3">
             <v>1</v>
           </cell>
-          <cell r="D3">
-            <v>10001</v>
+          <cell r="D3" t="str">
+            <v>[10001,10002,10003]</v>
           </cell>
           <cell r="E3">
             <v>1</v>
@@ -333,8 +333,8 @@
           <cell r="F3">
             <v>3</v>
           </cell>
-          <cell r="G3" t="b">
-            <v>0</v>
+          <cell r="G3" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H3" t="b">
             <v>1</v>
@@ -348,8 +348,8 @@
           <cell r="K3" t="b">
             <v>1</v>
           </cell>
-          <cell r="L3" t="b">
-            <v>1</v>
+          <cell r="L3" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="4">
@@ -362,8 +362,8 @@
           <cell r="C4">
             <v>1</v>
           </cell>
-          <cell r="D4">
-            <v>10002</v>
+          <cell r="D4" t="str">
+            <v>[10001,10002,10003]</v>
           </cell>
           <cell r="E4">
             <v>1</v>
@@ -371,8 +371,8 @@
           <cell r="F4">
             <v>1</v>
           </cell>
-          <cell r="G4" t="b">
-            <v>0</v>
+          <cell r="G4" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H4" t="b">
             <v>1</v>
@@ -386,8 +386,8 @@
           <cell r="K4" t="b">
             <v>1</v>
           </cell>
-          <cell r="L4" t="b">
-            <v>1</v>
+          <cell r="L4" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="5">
@@ -400,8 +400,8 @@
           <cell r="C5">
             <v>1</v>
           </cell>
-          <cell r="D5">
-            <v>10001</v>
+          <cell r="D5" t="str">
+            <v>[10001,10003,10008]</v>
           </cell>
           <cell r="E5">
             <v>1</v>
@@ -409,8 +409,8 @@
           <cell r="F5">
             <v>1</v>
           </cell>
-          <cell r="G5" t="b">
-            <v>0</v>
+          <cell r="G5" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H5" t="b">
             <v>1</v>
@@ -424,8 +424,8 @@
           <cell r="K5" t="b">
             <v>1</v>
           </cell>
-          <cell r="L5" t="b">
-            <v>1</v>
+          <cell r="L5" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="6">
@@ -438,8 +438,8 @@
           <cell r="C6">
             <v>1</v>
           </cell>
-          <cell r="D6">
-            <v>10001</v>
+          <cell r="D6" t="str">
+            <v>[10001,10003,10008]</v>
           </cell>
           <cell r="E6">
             <v>1</v>
@@ -447,8 +447,8 @@
           <cell r="F6">
             <v>2</v>
           </cell>
-          <cell r="G6" t="b">
-            <v>0</v>
+          <cell r="G6" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H6" t="b">
             <v>1</v>
@@ -462,8 +462,8 @@
           <cell r="K6" t="b">
             <v>1</v>
           </cell>
-          <cell r="L6" t="b">
-            <v>1</v>
+          <cell r="L6" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="7">
@@ -476,8 +476,8 @@
           <cell r="C7">
             <v>1</v>
           </cell>
-          <cell r="D7">
-            <v>10001</v>
+          <cell r="D7" t="str">
+            <v>[10001,10003]</v>
           </cell>
           <cell r="E7">
             <v>1</v>
@@ -485,8 +485,8 @@
           <cell r="F7">
             <v>2</v>
           </cell>
-          <cell r="G7" t="b">
-            <v>0</v>
+          <cell r="G7" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H7" t="b">
             <v>1</v>
@@ -500,8 +500,8 @@
           <cell r="K7" t="b">
             <v>1</v>
           </cell>
-          <cell r="L7" t="b">
-            <v>1</v>
+          <cell r="L7" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="8">
@@ -514,8 +514,8 @@
           <cell r="C8">
             <v>1</v>
           </cell>
-          <cell r="D8">
-            <v>10001</v>
+          <cell r="D8" t="str">
+            <v>[10001,10003]</v>
           </cell>
           <cell r="E8">
             <v>1</v>
@@ -523,8 +523,8 @@
           <cell r="F8">
             <v>2</v>
           </cell>
-          <cell r="G8" t="b">
-            <v>0</v>
+          <cell r="G8" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H8" t="b">
             <v>1</v>
@@ -538,8 +538,8 @@
           <cell r="K8" t="b">
             <v>1</v>
           </cell>
-          <cell r="L8" t="b">
-            <v>1</v>
+          <cell r="L8" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="9">
@@ -552,8 +552,8 @@
           <cell r="C9">
             <v>1</v>
           </cell>
-          <cell r="D9">
-            <v>10001</v>
+          <cell r="D9" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E9">
             <v>1</v>
@@ -561,8 +561,8 @@
           <cell r="F9">
             <v>1</v>
           </cell>
-          <cell r="G9" t="b">
-            <v>0</v>
+          <cell r="G9" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H9" t="b">
             <v>1</v>
@@ -576,8 +576,8 @@
           <cell r="K9" t="b">
             <v>1</v>
           </cell>
-          <cell r="L9" t="b">
-            <v>1</v>
+          <cell r="L9" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="10">
@@ -590,8 +590,8 @@
           <cell r="C10">
             <v>1</v>
           </cell>
-          <cell r="D10">
-            <v>10001</v>
+          <cell r="D10" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E10">
             <v>1</v>
@@ -599,8 +599,8 @@
           <cell r="F10">
             <v>1</v>
           </cell>
-          <cell r="G10" t="b">
-            <v>0</v>
+          <cell r="G10" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H10" t="b">
             <v>1</v>
@@ -614,8 +614,8 @@
           <cell r="K10" t="b">
             <v>1</v>
           </cell>
-          <cell r="L10" t="b">
-            <v>1</v>
+          <cell r="L10" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="11">
@@ -628,8 +628,8 @@
           <cell r="C11">
             <v>1</v>
           </cell>
-          <cell r="D11">
-            <v>10001</v>
+          <cell r="D11" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E11">
             <v>1</v>
@@ -637,8 +637,8 @@
           <cell r="F11">
             <v>1</v>
           </cell>
-          <cell r="G11" t="b">
-            <v>0</v>
+          <cell r="G11" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H11" t="b">
             <v>1</v>
@@ -652,8 +652,8 @@
           <cell r="K11" t="b">
             <v>0</v>
           </cell>
-          <cell r="L11" t="b">
-            <v>1</v>
+          <cell r="L11" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="12">
@@ -666,8 +666,8 @@
           <cell r="C12">
             <v>1</v>
           </cell>
-          <cell r="D12">
-            <v>10001</v>
+          <cell r="D12" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E12">
             <v>1</v>
@@ -675,8 +675,8 @@
           <cell r="F12">
             <v>1</v>
           </cell>
-          <cell r="G12" t="b">
-            <v>0</v>
+          <cell r="G12" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H12" t="b">
             <v>1</v>
@@ -690,8 +690,8 @@
           <cell r="K12" t="b">
             <v>0</v>
           </cell>
-          <cell r="L12" t="b">
-            <v>1</v>
+          <cell r="L12" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="13">
@@ -704,8 +704,8 @@
           <cell r="C13">
             <v>1</v>
           </cell>
-          <cell r="D13">
-            <v>10001</v>
+          <cell r="D13" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E13">
             <v>1</v>
@@ -713,8 +713,8 @@
           <cell r="F13">
             <v>1</v>
           </cell>
-          <cell r="G13" t="b">
-            <v>0</v>
+          <cell r="G13" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H13" t="b">
             <v>1</v>
@@ -728,8 +728,8 @@
           <cell r="K13" t="b">
             <v>1</v>
           </cell>
-          <cell r="L13" t="b">
-            <v>1</v>
+          <cell r="L13" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="14">
@@ -742,8 +742,8 @@
           <cell r="C14">
             <v>1</v>
           </cell>
-          <cell r="D14">
-            <v>10001</v>
+          <cell r="D14" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E14">
             <v>1</v>
@@ -751,8 +751,8 @@
           <cell r="F14">
             <v>1</v>
           </cell>
-          <cell r="G14" t="b">
-            <v>0</v>
+          <cell r="G14" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H14" t="b">
             <v>1</v>
@@ -766,8 +766,8 @@
           <cell r="K14" t="b">
             <v>0</v>
           </cell>
-          <cell r="L14" t="b">
-            <v>1</v>
+          <cell r="L14" t="str">
+            <v>CorpseTarget</v>
           </cell>
         </row>
         <row r="15">
@@ -780,8 +780,8 @@
           <cell r="C15">
             <v>1</v>
           </cell>
-          <cell r="D15">
-            <v>10001</v>
+          <cell r="D15" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E15">
             <v>1</v>
@@ -789,8 +789,8 @@
           <cell r="F15">
             <v>1</v>
           </cell>
-          <cell r="G15" t="b">
-            <v>0</v>
+          <cell r="G15" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H15" t="b">
             <v>1</v>
@@ -804,8 +804,8 @@
           <cell r="K15" t="b">
             <v>0</v>
           </cell>
-          <cell r="L15" t="b">
-            <v>1</v>
+          <cell r="L15" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="16">
@@ -818,8 +818,8 @@
           <cell r="C16">
             <v>1</v>
           </cell>
-          <cell r="D16">
-            <v>10001</v>
+          <cell r="D16" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E16">
             <v>1</v>
@@ -827,8 +827,8 @@
           <cell r="F16">
             <v>1</v>
           </cell>
-          <cell r="G16" t="b">
-            <v>0</v>
+          <cell r="G16" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H16" t="b">
             <v>1</v>
@@ -842,8 +842,8 @@
           <cell r="K16" t="b">
             <v>0</v>
           </cell>
-          <cell r="L16" t="b">
-            <v>1</v>
+          <cell r="L16" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="17">
@@ -856,8 +856,8 @@
           <cell r="C17">
             <v>1</v>
           </cell>
-          <cell r="D17">
-            <v>10001</v>
+          <cell r="D17" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E17">
             <v>1</v>
@@ -865,8 +865,8 @@
           <cell r="F17">
             <v>1</v>
           </cell>
-          <cell r="G17" t="b">
-            <v>0</v>
+          <cell r="G17" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H17" t="b">
             <v>1</v>
@@ -880,8 +880,8 @@
           <cell r="K17" t="b">
             <v>0</v>
           </cell>
-          <cell r="L17" t="b">
-            <v>1</v>
+          <cell r="L17" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="18">
@@ -894,8 +894,8 @@
           <cell r="C18">
             <v>1</v>
           </cell>
-          <cell r="D18">
-            <v>10001</v>
+          <cell r="D18" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E18">
             <v>1</v>
@@ -903,8 +903,8 @@
           <cell r="F18">
             <v>1</v>
           </cell>
-          <cell r="G18" t="b">
-            <v>0</v>
+          <cell r="G18" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H18" t="b">
             <v>1</v>
@@ -918,8 +918,8 @@
           <cell r="K18" t="b">
             <v>0</v>
           </cell>
-          <cell r="L18" t="b">
-            <v>1</v>
+          <cell r="L18" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="19">
@@ -932,8 +932,8 @@
           <cell r="C19">
             <v>1</v>
           </cell>
-          <cell r="D19">
-            <v>10001</v>
+          <cell r="D19" t="str">
+            <v>[10004,10003]</v>
           </cell>
           <cell r="E19">
             <v>1</v>
@@ -941,8 +941,8 @@
           <cell r="F19">
             <v>1</v>
           </cell>
-          <cell r="G19" t="b">
-            <v>0</v>
+          <cell r="G19" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H19" t="b">
             <v>1</v>
@@ -956,8 +956,8 @@
           <cell r="K19" t="b">
             <v>1</v>
           </cell>
-          <cell r="L19" t="b">
-            <v>1</v>
+          <cell r="L19" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="20">
@@ -970,8 +970,8 @@
           <cell r="C20">
             <v>1</v>
           </cell>
-          <cell r="D20">
-            <v>10001</v>
+          <cell r="D20" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E20">
             <v>1</v>
@@ -979,8 +979,8 @@
           <cell r="F20">
             <v>1</v>
           </cell>
-          <cell r="G20" t="b">
-            <v>0</v>
+          <cell r="G20" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H20" t="b">
             <v>1</v>
@@ -994,8 +994,8 @@
           <cell r="K20" t="b">
             <v>1</v>
           </cell>
-          <cell r="L20" t="b">
-            <v>1</v>
+          <cell r="L20" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="21">
@@ -1008,8 +1008,8 @@
           <cell r="C21">
             <v>1</v>
           </cell>
-          <cell r="D21">
-            <v>10001</v>
+          <cell r="D21" t="str">
+            <v>[10001,10002,10003]</v>
           </cell>
           <cell r="E21">
             <v>1</v>
@@ -1017,8 +1017,8 @@
           <cell r="F21">
             <v>1</v>
           </cell>
-          <cell r="G21" t="b">
-            <v>0</v>
+          <cell r="G21" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H21" t="b">
             <v>1</v>
@@ -1032,8 +1032,8 @@
           <cell r="K21" t="b">
             <v>1</v>
           </cell>
-          <cell r="L21" t="b">
-            <v>0</v>
+          <cell r="L21" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="22">
@@ -1046,8 +1046,8 @@
           <cell r="C22">
             <v>1</v>
           </cell>
-          <cell r="D22">
-            <v>10001</v>
+          <cell r="D22" t="str">
+            <v>[10003,10009,10008,10007]</v>
           </cell>
           <cell r="E22">
             <v>1</v>
@@ -1055,8 +1055,8 @@
           <cell r="F22">
             <v>1</v>
           </cell>
-          <cell r="G22" t="b">
-            <v>0</v>
+          <cell r="G22" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H22" t="b">
             <v>1</v>
@@ -1070,8 +1070,8 @@
           <cell r="K22" t="b">
             <v>1</v>
           </cell>
-          <cell r="L22" t="b">
-            <v>1</v>
+          <cell r="L22" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="23">
@@ -1084,8 +1084,8 @@
           <cell r="C23">
             <v>1</v>
           </cell>
-          <cell r="D23">
-            <v>10001</v>
+          <cell r="D23" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E23">
             <v>1</v>
@@ -1093,8 +1093,8 @@
           <cell r="F23">
             <v>1</v>
           </cell>
-          <cell r="G23" t="b">
-            <v>0</v>
+          <cell r="G23" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H23" t="b">
             <v>1</v>
@@ -1108,8 +1108,8 @@
           <cell r="K23" t="b">
             <v>1</v>
           </cell>
-          <cell r="L23" t="b">
-            <v>0</v>
+          <cell r="L23" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="24">
@@ -1122,8 +1122,8 @@
           <cell r="C24">
             <v>1</v>
           </cell>
-          <cell r="D24">
-            <v>10001</v>
+          <cell r="D24" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E24">
             <v>1</v>
@@ -1131,8 +1131,8 @@
           <cell r="F24">
             <v>1</v>
           </cell>
-          <cell r="G24" t="b">
-            <v>0</v>
+          <cell r="G24" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H24" t="b">
             <v>1</v>
@@ -1146,8 +1146,8 @@
           <cell r="K24" t="b">
             <v>1</v>
           </cell>
-          <cell r="L24" t="b">
-            <v>0</v>
+          <cell r="L24" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="25">
@@ -1160,8 +1160,8 @@
           <cell r="C25">
             <v>1</v>
           </cell>
-          <cell r="D25">
-            <v>10001</v>
+          <cell r="D25" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E25">
             <v>1</v>
@@ -1169,8 +1169,8 @@
           <cell r="F25">
             <v>1</v>
           </cell>
-          <cell r="G25" t="b">
-            <v>0</v>
+          <cell r="G25" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H25" t="b">
             <v>1</v>
@@ -1184,8 +1184,8 @@
           <cell r="K25" t="b">
             <v>1</v>
           </cell>
-          <cell r="L25" t="b">
-            <v>1</v>
+          <cell r="L25" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="26">
@@ -1198,8 +1198,8 @@
           <cell r="C26">
             <v>1</v>
           </cell>
-          <cell r="D26">
-            <v>10001</v>
+          <cell r="D26" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E26">
             <v>1</v>
@@ -1207,8 +1207,8 @@
           <cell r="F26">
             <v>1</v>
           </cell>
-          <cell r="G26" t="b">
-            <v>0</v>
+          <cell r="G26" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H26" t="b">
             <v>1</v>
@@ -1222,8 +1222,8 @@
           <cell r="K26" t="b">
             <v>1</v>
           </cell>
-          <cell r="L26" t="b">
-            <v>0</v>
+          <cell r="L26" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="27">
@@ -1236,8 +1236,8 @@
           <cell r="C27">
             <v>1</v>
           </cell>
-          <cell r="D27">
-            <v>10001</v>
+          <cell r="D27" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E27">
             <v>1</v>
@@ -1245,8 +1245,8 @@
           <cell r="F27">
             <v>1</v>
           </cell>
-          <cell r="G27" t="b">
-            <v>0</v>
+          <cell r="G27" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H27" t="b">
             <v>1</v>
@@ -1260,8 +1260,8 @@
           <cell r="K27" t="b">
             <v>1</v>
           </cell>
-          <cell r="L27" t="b">
-            <v>0</v>
+          <cell r="L27" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="28">
@@ -1274,8 +1274,8 @@
           <cell r="C28">
             <v>1</v>
           </cell>
-          <cell r="D28">
-            <v>10001</v>
+          <cell r="D28" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E28">
             <v>1</v>
@@ -1283,8 +1283,8 @@
           <cell r="F28">
             <v>1</v>
           </cell>
-          <cell r="G28" t="b">
-            <v>0</v>
+          <cell r="G28" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H28" t="b">
             <v>1</v>
@@ -1298,8 +1298,8 @@
           <cell r="K28" t="b">
             <v>0</v>
           </cell>
-          <cell r="L28" t="b">
-            <v>1</v>
+          <cell r="L28" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="29">
@@ -1312,8 +1312,8 @@
           <cell r="C29">
             <v>1</v>
           </cell>
-          <cell r="D29">
-            <v>10001</v>
+          <cell r="D29" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E29">
             <v>1</v>
@@ -1321,8 +1321,8 @@
           <cell r="F29">
             <v>1</v>
           </cell>
-          <cell r="G29" t="b">
-            <v>0</v>
+          <cell r="G29" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H29" t="b">
             <v>1</v>
@@ -1336,8 +1336,8 @@
           <cell r="K29" t="b">
             <v>0</v>
           </cell>
-          <cell r="L29" t="b">
-            <v>1</v>
+          <cell r="L29" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="30">
@@ -1350,8 +1350,8 @@
           <cell r="C30">
             <v>1</v>
           </cell>
-          <cell r="D30">
-            <v>10001</v>
+          <cell r="D30" t="str">
+            <v>[]</v>
           </cell>
           <cell r="E30">
             <v>1</v>
@@ -1359,8 +1359,8 @@
           <cell r="F30">
             <v>1</v>
           </cell>
-          <cell r="G30" t="b">
-            <v>0</v>
+          <cell r="G30" t="str">
+            <v>CorpseStatus</v>
           </cell>
           <cell r="H30" t="b">
             <v>1</v>
@@ -1374,8 +1374,8 @@
           <cell r="K30" t="b">
             <v>0</v>
           </cell>
-          <cell r="L30" t="b">
-            <v>1</v>
+          <cell r="L30" t="str">
+            <v>NPCTarget</v>
           </cell>
         </row>
         <row r="31">
@@ -1388,8 +1388,8 @@
           <cell r="C31">
             <v>1</v>
           </cell>
-          <cell r="D31">
-            <v>10001</v>
+          <cell r="D31" t="str">
+            <v>[10003]</v>
           </cell>
           <cell r="E31">
             <v>1</v>
@@ -1397,8 +1397,8 @@
           <cell r="F31">
             <v>1</v>
           </cell>
-          <cell r="G31" t="b">
-            <v>0</v>
+          <cell r="G31" t="str">
+            <v>Kill</v>
           </cell>
           <cell r="H31" t="b">
             <v>1</v>
@@ -1412,8 +1412,46 @@
           <cell r="K31" t="b">
             <v>1</v>
           </cell>
-          <cell r="L31" t="b">
-            <v>1</v>
+          <cell r="L31" t="str">
+            <v>NPCTarget</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>130</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>시체정밀조사</v>
+          </cell>
+          <cell r="C32">
+            <v>1</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="E32">
+            <v>1</v>
+          </cell>
+          <cell r="F32">
+            <v>1</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>CorpseStatus</v>
+          </cell>
+          <cell r="H32" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="I32" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>#1 - Transparent Icons_77</v>
+          </cell>
+          <cell r="K32" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>CorpseTarget</v>
           </cell>
         </row>
       </sheetData>
@@ -1445,7 +1483,7 @@
             <v>101</v>
           </cell>
           <cell r="B3" t="str">
-            <v>식칼</v>
+            <v>Knife</v>
           </cell>
           <cell r="C3" t="str">
             <v>식칼</v>
@@ -1456,7 +1494,7 @@
             <v>102</v>
           </cell>
           <cell r="B4" t="str">
-            <v>송곳</v>
+            <v>Awl</v>
           </cell>
           <cell r="C4" t="str">
             <v>송곳</v>
@@ -1467,7 +1505,7 @@
             <v>103</v>
           </cell>
           <cell r="B5" t="str">
-            <v>망치</v>
+            <v>Hammer</v>
           </cell>
           <cell r="C5" t="str">
             <v>망치</v>
@@ -1478,7 +1516,7 @@
             <v>104</v>
           </cell>
           <cell r="B6" t="str">
-            <v>야구배트</v>
+            <v>Baseball Bat</v>
           </cell>
           <cell r="C6" t="str">
             <v>야구배트</v>
@@ -1489,7 +1527,7 @@
             <v>105</v>
           </cell>
           <cell r="B7" t="str">
-            <v>전기톱</v>
+            <v>Electric Saw</v>
           </cell>
           <cell r="C7" t="str">
             <v>전기톱</v>
@@ -1500,7 +1538,7 @@
             <v>106</v>
           </cell>
           <cell r="B8" t="str">
-            <v>리볼버</v>
+            <v>Revolver</v>
           </cell>
           <cell r="C8" t="str">
             <v>리볼버</v>
@@ -1511,7 +1549,7 @@
             <v>107</v>
           </cell>
           <cell r="B9" t="str">
-            <v>소음기</v>
+            <v>Silencer</v>
           </cell>
           <cell r="C9" t="str">
             <v>소음기</v>
@@ -1522,7 +1560,7 @@
             <v>108</v>
           </cell>
           <cell r="B10" t="str">
-            <v>청산가리</v>
+            <v>Cyanide</v>
           </cell>
           <cell r="C10" t="str">
             <v>청산가리</v>
@@ -1533,7 +1571,7 @@
             <v>109</v>
           </cell>
           <cell r="B11" t="str">
-            <v>녹음 테이프(남)</v>
+            <v>RecordTape Man</v>
           </cell>
           <cell r="C11" t="str">
             <v>녹음 테이프(남)</v>
@@ -1544,7 +1582,7 @@
             <v>110</v>
           </cell>
           <cell r="B12" t="str">
-            <v>녹음 테이프(여)</v>
+            <v>RecordTape Woman</v>
           </cell>
           <cell r="C12" t="str">
             <v>녹음 테이프(여)</v>
@@ -1555,7 +1593,7 @@
             <v>111</v>
           </cell>
           <cell r="B13" t="str">
-            <v>시체 수거</v>
+            <v>CollectCorpse</v>
           </cell>
           <cell r="C13" t="str">
             <v>시체 수거</v>
@@ -1566,7 +1604,7 @@
             <v>112</v>
           </cell>
           <cell r="B14" t="str">
-            <v>돋보기</v>
+            <v>Magnifying Glass</v>
           </cell>
           <cell r="C14" t="str">
             <v>돋보기</v>
@@ -1577,7 +1615,7 @@
             <v>113</v>
           </cell>
           <cell r="B15" t="str">
-            <v>노트북</v>
+            <v>NoteBook</v>
           </cell>
           <cell r="C15" t="str">
             <v>노트북</v>
@@ -1588,7 +1626,7 @@
             <v>114</v>
           </cell>
           <cell r="B16" t="str">
-            <v>독판별</v>
+            <v>PoisonCheck</v>
           </cell>
           <cell r="C16" t="str">
             <v>독판별</v>
@@ -1599,7 +1637,7 @@
             <v>115</v>
           </cell>
           <cell r="B17" t="str">
-            <v>관찰</v>
+            <v>Observe</v>
           </cell>
           <cell r="C17" t="str">
             <v>관찰</v>
@@ -1610,7 +1648,7 @@
             <v>116</v>
           </cell>
           <cell r="B18" t="str">
-            <v>응급키트</v>
+            <v>MedKit</v>
           </cell>
           <cell r="C18" t="str">
             <v>응급키트</v>
@@ -1621,7 +1659,7 @@
             <v>117</v>
           </cell>
           <cell r="B19" t="str">
-            <v>가죽밸트</v>
+            <v>SkinBelt</v>
           </cell>
           <cell r="C19" t="str">
             <v>가죽밸트</v>
@@ -1632,7 +1670,7 @@
             <v>118</v>
           </cell>
           <cell r="B20" t="str">
-            <v>포르말린</v>
+            <v>Formalin</v>
           </cell>
           <cell r="C20" t="str">
             <v>포르말린</v>
@@ -1643,7 +1681,7 @@
             <v>119</v>
           </cell>
           <cell r="B21" t="str">
-            <v>연필</v>
+            <v>Pencil</v>
           </cell>
           <cell r="C21" t="str">
             <v>연필</v>
@@ -1654,7 +1692,7 @@
             <v>120</v>
           </cell>
           <cell r="B22" t="str">
-            <v>너클</v>
+            <v>Knuckles</v>
           </cell>
           <cell r="C22" t="str">
             <v>너클</v>
@@ -1665,7 +1703,7 @@
             <v>121</v>
           </cell>
           <cell r="B23" t="str">
-            <v>독침</v>
+            <v>PosionNeedle</v>
           </cell>
           <cell r="C23" t="str">
             <v>독침</v>
@@ -1676,7 +1714,7 @@
             <v>122</v>
           </cell>
           <cell r="B24" t="str">
-            <v>강철 실</v>
+            <v>Metal Thread</v>
           </cell>
           <cell r="C24" t="str">
             <v>강철 실</v>
@@ -1687,7 +1725,7 @@
             <v>123</v>
           </cell>
           <cell r="B25" t="str">
-            <v>가죽 장갑</v>
+            <v>Skin Glove</v>
           </cell>
           <cell r="C25" t="str">
             <v>가죽 장갑</v>
@@ -1698,7 +1736,7 @@
             <v>124</v>
           </cell>
           <cell r="B26" t="str">
-            <v>증거조작</v>
+            <v>EvidenceModify</v>
           </cell>
           <cell r="C26" t="str">
             <v>증거조작</v>
@@ -1709,7 +1747,7 @@
             <v>125</v>
           </cell>
           <cell r="B27" t="str">
-            <v>볼펜</v>
+            <v>Pen</v>
           </cell>
           <cell r="C27" t="str">
             <v>볼펜</v>
@@ -1720,7 +1758,7 @@
             <v>126</v>
           </cell>
           <cell r="B28" t="str">
-            <v>주사기</v>
+            <v>Needle</v>
           </cell>
           <cell r="C28" t="str">
             <v>주사기</v>
@@ -1731,7 +1769,7 @@
             <v>127</v>
           </cell>
           <cell r="B29" t="str">
-            <v>지문대조기</v>
+            <v>FingerPirntChecker</v>
           </cell>
           <cell r="C29" t="str">
             <v>지문대조기</v>
@@ -1742,7 +1780,7 @@
             <v>128</v>
           </cell>
           <cell r="B30" t="str">
-            <v>혈액형검사키트</v>
+            <v>BloodTypeChecker</v>
           </cell>
           <cell r="C30" t="str">
             <v>혈액형검사키트</v>
@@ -1753,10 +1791,21 @@
             <v>129</v>
           </cell>
           <cell r="B31" t="str">
-            <v>털장갑</v>
+            <v>SnowGlove</v>
           </cell>
           <cell r="C31" t="str">
             <v>털장갑</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>130</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>CorspeStatus</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>시체정밀조사</v>
           </cell>
         </row>
       </sheetData>
@@ -2029,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659891D2-17FD-44E8-964A-0AB598793144}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2529,10 +2578,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>130</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f>VLOOKUP(A32,[1]Translate_Name!$A$1:$Q$782,3,FALSE)</f>
+        <v>시체정밀조사</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9" t="b">
+        <f>VLOOKUP(A32,[1]Info!$A$1:$Q$782,11,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D31">
+  <conditionalFormatting sqref="A1:D32">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/Table/xlsx/GameData.xlsx
+++ b/Table/xlsx/GameData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC6EDF-AC4B-4B84-AC8A-4DC4B27DC99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD494B1-86A9-494E-A102-CAC821CD587B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartItemSetting" sheetId="4" r:id="rId1"/>
+    <sheet name="NPCSettings" sheetId="6" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,6 +53,22 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,6 +292,15 @@
           <cell r="L1" t="str">
             <v>ItemTargetType</v>
           </cell>
+          <cell r="M1" t="str">
+            <v>Job</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>UsedPlayerGivenBuff</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>FilterBuff</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -313,6 +339,15 @@
           <cell r="L2" t="str">
             <v>EItemTargetType</v>
           </cell>
+          <cell r="M2" t="str">
+            <v>EJob</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>List&lt;int&gt;</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>List&lt;int&gt;</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
@@ -334,7 +369,7 @@
             <v>3</v>
           </cell>
           <cell r="G3" t="str">
-            <v>Kill</v>
+            <v>Knife</v>
           </cell>
           <cell r="H3" t="b">
             <v>1</v>
@@ -350,6 +385,15 @@
           </cell>
           <cell r="L3" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="4">
@@ -372,7 +416,7 @@
             <v>1</v>
           </cell>
           <cell r="G4" t="str">
-            <v>Kill</v>
+            <v>Awl</v>
           </cell>
           <cell r="H4" t="b">
             <v>1</v>
@@ -388,6 +432,15 @@
           </cell>
           <cell r="L4" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="5">
@@ -410,7 +463,7 @@
             <v>1</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Kill</v>
+            <v>Hammer</v>
           </cell>
           <cell r="H5" t="b">
             <v>1</v>
@@ -426,6 +479,15 @@
           </cell>
           <cell r="L5" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="6">
@@ -448,7 +510,7 @@
             <v>2</v>
           </cell>
           <cell r="G6" t="str">
-            <v>Kill</v>
+            <v>BaseballBat</v>
           </cell>
           <cell r="H6" t="b">
             <v>1</v>
@@ -464,6 +526,15 @@
           </cell>
           <cell r="L6" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="7">
@@ -486,7 +557,7 @@
             <v>2</v>
           </cell>
           <cell r="G7" t="str">
-            <v>Kill</v>
+            <v>ElectricSaw</v>
           </cell>
           <cell r="H7" t="b">
             <v>1</v>
@@ -502,6 +573,15 @@
           </cell>
           <cell r="L7" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="8">
@@ -524,7 +604,7 @@
             <v>2</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Kill</v>
+            <v>Revolver</v>
           </cell>
           <cell r="H8" t="b">
             <v>1</v>
@@ -540,6 +620,15 @@
           </cell>
           <cell r="L8" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="9">
@@ -553,7 +642,7 @@
             <v>1</v>
           </cell>
           <cell r="D9" t="str">
-            <v>[10003]</v>
+            <v>[]</v>
           </cell>
           <cell r="E9">
             <v>1</v>
@@ -562,7 +651,7 @@
             <v>1</v>
           </cell>
           <cell r="G9" t="str">
-            <v>Kill</v>
+            <v>Silencer</v>
           </cell>
           <cell r="H9" t="b">
             <v>1</v>
@@ -577,7 +666,16 @@
             <v>1</v>
           </cell>
           <cell r="L9" t="str">
-            <v>NPCTarget</v>
+            <v>SelfTarget</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="10">
@@ -600,7 +698,7 @@
             <v>1</v>
           </cell>
           <cell r="G10" t="str">
-            <v>Kill</v>
+            <v>Cyanide</v>
           </cell>
           <cell r="H10" t="b">
             <v>1</v>
@@ -616,6 +714,15 @@
           </cell>
           <cell r="L10" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="11">
@@ -638,7 +745,7 @@
             <v>1</v>
           </cell>
           <cell r="G11" t="str">
-            <v>CorpseStatus</v>
+            <v>RecordTapeMan</v>
           </cell>
           <cell r="H11" t="b">
             <v>1</v>
@@ -653,7 +760,16 @@
             <v>0</v>
           </cell>
           <cell r="L11" t="str">
-            <v>NPCTarget</v>
+            <v>SelfTarget</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="12">
@@ -676,7 +792,7 @@
             <v>1</v>
           </cell>
           <cell r="G12" t="str">
-            <v>CorpseStatus</v>
+            <v>RecordTapeWoman</v>
           </cell>
           <cell r="H12" t="b">
             <v>1</v>
@@ -691,7 +807,16 @@
             <v>0</v>
           </cell>
           <cell r="L12" t="str">
-            <v>NPCTarget</v>
+            <v>SelfTarget</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="13">
@@ -705,7 +830,7 @@
             <v>1</v>
           </cell>
           <cell r="D13" t="str">
-            <v>[10003]</v>
+            <v>[]</v>
           </cell>
           <cell r="E13">
             <v>1</v>
@@ -714,7 +839,7 @@
             <v>1</v>
           </cell>
           <cell r="G13" t="str">
-            <v>Kill</v>
+            <v>CollectCorpse</v>
           </cell>
           <cell r="H13" t="b">
             <v>1</v>
@@ -729,7 +854,16 @@
             <v>1</v>
           </cell>
           <cell r="L13" t="str">
-            <v>NPCTarget</v>
+            <v>CorpseTarget</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="14">
@@ -752,7 +886,7 @@
             <v>1</v>
           </cell>
           <cell r="G14" t="str">
-            <v>CorpseStatus</v>
+            <v>MagnifyingGlass</v>
           </cell>
           <cell r="H14" t="b">
             <v>1</v>
@@ -768,6 +902,15 @@
           </cell>
           <cell r="L14" t="str">
             <v>CorpseTarget</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="15">
@@ -790,7 +933,7 @@
             <v>1</v>
           </cell>
           <cell r="G15" t="str">
-            <v>CorpseStatus</v>
+            <v>NoteBook</v>
           </cell>
           <cell r="H15" t="b">
             <v>1</v>
@@ -805,7 +948,16 @@
             <v>0</v>
           </cell>
           <cell r="L15" t="str">
-            <v>NPCTarget</v>
+            <v>SelfTarget</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="16">
@@ -828,7 +980,7 @@
             <v>1</v>
           </cell>
           <cell r="G16" t="str">
-            <v>CorpseStatus</v>
+            <v>PoisonCheck</v>
           </cell>
           <cell r="H16" t="b">
             <v>1</v>
@@ -843,7 +995,16 @@
             <v>0</v>
           </cell>
           <cell r="L16" t="str">
-            <v>NPCTarget</v>
+            <v>CorpseTarget</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="17">
@@ -866,7 +1027,7 @@
             <v>1</v>
           </cell>
           <cell r="G17" t="str">
-            <v>CorpseStatus</v>
+            <v>Observe</v>
           </cell>
           <cell r="H17" t="b">
             <v>1</v>
@@ -881,7 +1042,16 @@
             <v>0</v>
           </cell>
           <cell r="L17" t="str">
-            <v>NPCTarget</v>
+            <v>PlayerTarget</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="18">
@@ -904,7 +1074,7 @@
             <v>1</v>
           </cell>
           <cell r="G18" t="str">
-            <v>CorpseStatus</v>
+            <v>MedKit</v>
           </cell>
           <cell r="H18" t="b">
             <v>1</v>
@@ -919,7 +1089,16 @@
             <v>0</v>
           </cell>
           <cell r="L18" t="str">
-            <v>NPCTarget</v>
+            <v>CorpseTarget</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O18" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="19">
@@ -942,7 +1121,7 @@
             <v>1</v>
           </cell>
           <cell r="G19" t="str">
-            <v>Kill</v>
+            <v>SkinBelt</v>
           </cell>
           <cell r="H19" t="b">
             <v>1</v>
@@ -958,6 +1137,15 @@
           </cell>
           <cell r="L19" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O19" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="20">
@@ -971,7 +1159,7 @@
             <v>1</v>
           </cell>
           <cell r="D20" t="str">
-            <v>[10003]</v>
+            <v>[10014]</v>
           </cell>
           <cell r="E20">
             <v>1</v>
@@ -980,7 +1168,7 @@
             <v>1</v>
           </cell>
           <cell r="G20" t="str">
-            <v>Kill</v>
+            <v>Formalin</v>
           </cell>
           <cell r="H20" t="b">
             <v>1</v>
@@ -996,6 +1184,15 @@
           </cell>
           <cell r="L20" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="21">
@@ -1018,7 +1215,7 @@
             <v>1</v>
           </cell>
           <cell r="G21" t="str">
-            <v>Kill</v>
+            <v>Pencil</v>
           </cell>
           <cell r="H21" t="b">
             <v>1</v>
@@ -1034,6 +1231,15 @@
           </cell>
           <cell r="L21" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M21" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="22">
@@ -1056,7 +1262,7 @@
             <v>1</v>
           </cell>
           <cell r="G22" t="str">
-            <v>Kill</v>
+            <v>Knuckles</v>
           </cell>
           <cell r="H22" t="b">
             <v>1</v>
@@ -1072,6 +1278,15 @@
           </cell>
           <cell r="L22" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="23">
@@ -1094,7 +1309,7 @@
             <v>1</v>
           </cell>
           <cell r="G23" t="str">
-            <v>Kill</v>
+            <v>PosionNeedle</v>
           </cell>
           <cell r="H23" t="b">
             <v>1</v>
@@ -1110,6 +1325,15 @@
           </cell>
           <cell r="L23" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M23" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O23" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="24">
@@ -1132,7 +1356,7 @@
             <v>1</v>
           </cell>
           <cell r="G24" t="str">
-            <v>Kill</v>
+            <v>MetalThread</v>
           </cell>
           <cell r="H24" t="b">
             <v>1</v>
@@ -1148,6 +1372,15 @@
           </cell>
           <cell r="L24" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O24" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="25">
@@ -1161,7 +1394,7 @@
             <v>1</v>
           </cell>
           <cell r="D25" t="str">
-            <v>[10003]</v>
+            <v>[]</v>
           </cell>
           <cell r="E25">
             <v>1</v>
@@ -1170,7 +1403,7 @@
             <v>1</v>
           </cell>
           <cell r="G25" t="str">
-            <v>Kill</v>
+            <v>SkinGlove</v>
           </cell>
           <cell r="H25" t="b">
             <v>1</v>
@@ -1185,7 +1418,16 @@
             <v>1</v>
           </cell>
           <cell r="L25" t="str">
-            <v>NPCTarget</v>
+            <v>SelfTarget</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O25" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="26">
@@ -1208,7 +1450,7 @@
             <v>1</v>
           </cell>
           <cell r="G26" t="str">
-            <v>Kill</v>
+            <v>EvidenceModify</v>
           </cell>
           <cell r="H26" t="b">
             <v>1</v>
@@ -1223,7 +1465,16 @@
             <v>1</v>
           </cell>
           <cell r="L26" t="str">
-            <v>NPCTarget</v>
+            <v>CorpseTarget</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O26" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="27">
@@ -1246,7 +1497,7 @@
             <v>1</v>
           </cell>
           <cell r="G27" t="str">
-            <v>Kill</v>
+            <v>Pen</v>
           </cell>
           <cell r="H27" t="b">
             <v>1</v>
@@ -1262,6 +1513,15 @@
           </cell>
           <cell r="L27" t="str">
             <v>NPCTarget</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="28">
@@ -1284,7 +1544,7 @@
             <v>1</v>
           </cell>
           <cell r="G28" t="str">
-            <v>CorpseStatus</v>
+            <v>Needle</v>
           </cell>
           <cell r="H28" t="b">
             <v>1</v>
@@ -1299,7 +1559,16 @@
             <v>0</v>
           </cell>
           <cell r="L28" t="str">
-            <v>NPCTarget</v>
+            <v>None</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="29">
@@ -1322,7 +1591,7 @@
             <v>1</v>
           </cell>
           <cell r="G29" t="str">
-            <v>CorpseStatus</v>
+            <v>FingerPirntChecker</v>
           </cell>
           <cell r="H29" t="b">
             <v>1</v>
@@ -1337,7 +1606,16 @@
             <v>0</v>
           </cell>
           <cell r="L29" t="str">
-            <v>NPCTarget</v>
+            <v>PlayerTarget</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="30">
@@ -1360,7 +1638,7 @@
             <v>1</v>
           </cell>
           <cell r="G30" t="str">
-            <v>CorpseStatus</v>
+            <v>BloodTypeChecker</v>
           </cell>
           <cell r="H30" t="b">
             <v>1</v>
@@ -1375,7 +1653,16 @@
             <v>0</v>
           </cell>
           <cell r="L30" t="str">
-            <v>NPCTarget</v>
+            <v>PlayerTarget</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="31">
@@ -1389,7 +1676,7 @@
             <v>1</v>
           </cell>
           <cell r="D31" t="str">
-            <v>[10003]</v>
+            <v>[]</v>
           </cell>
           <cell r="E31">
             <v>1</v>
@@ -1398,7 +1685,7 @@
             <v>1</v>
           </cell>
           <cell r="G31" t="str">
-            <v>Kill</v>
+            <v>SnowGlove</v>
           </cell>
           <cell r="H31" t="b">
             <v>1</v>
@@ -1413,7 +1700,16 @@
             <v>1</v>
           </cell>
           <cell r="L31" t="str">
-            <v>NPCTarget</v>
+            <v>SelfTarget</v>
+          </cell>
+          <cell r="M31" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N31" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O31" t="str">
+            <v>[]</v>
           </cell>
         </row>
         <row r="32">
@@ -1452,6 +1748,15 @@
           </cell>
           <cell r="L32" t="str">
             <v>CorpseTarget</v>
+          </cell>
+          <cell r="M32" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N32" t="str">
+            <v>[]</v>
+          </cell>
+          <cell r="O32" t="str">
+            <v>[10001,10002,10003,10004,10005,10006,10007,10008,10009,10010,10011,10012,10013]</v>
           </cell>
         </row>
       </sheetData>
@@ -2081,7 +2386,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2123,7 +2428,7 @@
         <v>식칼</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="b">
         <f>VLOOKUP(A3,[1]Info!$A$1:$Q$782,11,FALSE)</f>
@@ -2411,7 +2716,7 @@
         <v>연필</v>
       </c>
       <c r="C21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6" t="b">
         <f>VLOOKUP(A21,[1]Info!$A$1:$Q$782,11,FALSE)</f>
@@ -2539,7 +2844,7 @@
         <v>지문대조기</v>
       </c>
       <c r="C29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="6" t="b">
         <f>VLOOKUP(A29,[1]Info!$A$1:$Q$782,11,FALSE)</f>
@@ -2555,7 +2860,7 @@
         <v>혈액형검사키트</v>
       </c>
       <c r="C30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6" t="b">
         <f>VLOOKUP(A30,[1]Info!$A$1:$Q$782,11,FALSE)</f>
@@ -2608,4 +2913,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB378F6-B182-43E1-A6A4-FD7B0DF185D7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>